--- a/data/tb_euro_uefa.xlsx
+++ b/data/tb_euro_uefa.xlsx
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1816,13 +1816,13 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1879,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2383,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -2446,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -2479,10 +2479,10 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -2536,13 +2536,13 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3526,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4696,13 +4696,13 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -4903,7 +4903,7 @@
         <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -5206,13 +5206,13 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -5239,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -5326,13 +5326,13 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -5359,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -5686,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -5719,10 +5719,10 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/tb_euro_uefa.xlsx
+++ b/data/tb_euro_uefa.xlsx
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1816,13 +1816,13 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1879,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2383,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -2446,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2479,10 +2479,10 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2536,13 +2536,13 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3526,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4696,13 +4696,13 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4903,7 +4903,7 @@
         <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
@@ -5206,13 +5206,13 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -5239,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -5326,13 +5326,13 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -5359,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -5686,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -5719,10 +5719,10 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
